--- a/config_7.27/game_module_config.xlsx
+++ b/config_7.27/game_module_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_7.27\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -28,7 +33,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>key|key</t>
     </r>
@@ -501,7 +506,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>vip</t>
     </r>
@@ -512,7 +517,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -530,7 +535,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -548,7 +553,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -566,7 +571,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -664,7 +669,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>jyfl</t>
     </r>
@@ -1257,7 +1262,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1352,7 +1357,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1387,7 +1392,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1422,7 +1427,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1440,7 +1445,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1466,7 +1471,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1501,7 +1506,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1536,7 +1541,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1639,7 +1644,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1674,7 +1679,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1709,7 +1714,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1744,7 +1749,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1779,7 +1784,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1814,7 +1819,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1849,7 +1854,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1978,7 +1983,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2004,7 +2009,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -3464,7 +3469,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>--</t>
     </r>
@@ -3600,9 +3605,6 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_023_dlphb</t>
-  </si>
-  <si>
     <t>掉落排行榜皮肤（消耗）</t>
   </si>
   <si>
@@ -3612,9 +3614,6 @@
     <t>龙虾券掉落</t>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_013_hhl</t>
-  </si>
-  <si>
     <t>换好礼皮肤</t>
   </si>
   <si>
@@ -3627,9 +3626,6 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_025</t>
-  </si>
-  <si>
     <t>扩展活动皮肤</t>
   </si>
   <si>
@@ -3748,9 +3744,6 @@
   </si>
   <si>
     <t>通用礼包模板，永久</t>
-  </si>
-  <si>
-    <t>act_ty_gifts_style/act_005_khlb</t>
   </si>
   <si>
     <t>狂欢礼包</t>
@@ -3844,18 +3837,28 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_017</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_003_hflb</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_011_hhl</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_016_dlphb</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="34">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3867,7 +3870,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3879,13 +3882,13 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3903,13 +3906,13 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3921,162 +3924,25 @@
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4090,8 +3956,21 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4106,13 +3985,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4134,182 +4013,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4332,255 +4037,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4610,16 +4073,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4750,63 +4213,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5064,20 +4483,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C314" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B340" sqref="B340"/>
+      <selection pane="bottomRight" activeCell="D333" sqref="D333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5093,7 +4511,7 @@
     <col min="9" max="9" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5122,7 +4540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -6446,7 +5864,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -6628,7 +6046,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:9">
+    <row r="60" spans="1:9" s="2" customFormat="1">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -6992,7 +6410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="3" customFormat="1" spans="1:9">
+    <row r="74" spans="1:9" s="3" customFormat="1">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -7044,7 +6462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="4" customFormat="1" spans="1:9">
+    <row r="76" spans="1:9" s="4" customFormat="1">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -8162,7 +7580,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" spans="1:9">
+    <row r="119" spans="1:9" s="2" customFormat="1">
       <c r="A119" s="16">
         <v>118</v>
       </c>
@@ -9732,7 +9150,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="1" spans="1:9">
+    <row r="180" spans="1:9" s="2" customFormat="1">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -9756,7 +9174,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="1" spans="1:9">
+    <row r="181" spans="1:9" s="2" customFormat="1">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -9780,7 +9198,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="1" spans="1:9">
+    <row r="182" spans="1:9" s="2" customFormat="1">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -10802,7 +10220,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:9">
       <c r="A226" s="13">
         <v>225</v>
       </c>
@@ -10825,7 +10243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:9">
       <c r="A227" s="13">
         <v>226</v>
       </c>
@@ -10848,7 +10266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:9">
       <c r="A228" s="13">
         <v>227</v>
       </c>
@@ -10871,7 +10289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:9">
       <c r="A229" s="13">
         <v>228</v>
       </c>
@@ -10894,7 +10312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:9">
       <c r="A230" s="13">
         <v>229</v>
       </c>
@@ -10917,7 +10335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:9">
       <c r="A231" s="13">
         <v>230</v>
       </c>
@@ -10940,7 +10358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:9">
       <c r="A232" s="13">
         <v>231</v>
       </c>
@@ -10963,7 +10381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:9">
       <c r="A233" s="13">
         <v>232</v>
       </c>
@@ -10986,7 +10404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:9">
       <c r="A234" s="13">
         <v>233</v>
       </c>
@@ -11556,7 +10974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="5" customFormat="1" spans="1:9">
+    <row r="256" spans="1:9" s="5" customFormat="1">
       <c r="A256" s="13">
         <v>255</v>
       </c>
@@ -11582,7 +11000,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" spans="1:9">
+    <row r="257" spans="1:9" s="5" customFormat="1">
       <c r="A257" s="13">
         <v>256</v>
       </c>
@@ -11608,7 +11026,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" spans="1:9">
+    <row r="258" spans="1:9" s="5" customFormat="1">
       <c r="A258" s="13">
         <v>257</v>
       </c>
@@ -11634,7 +11052,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" spans="1:9">
+    <row r="259" spans="1:9" s="5" customFormat="1">
       <c r="A259" s="13">
         <v>258</v>
       </c>
@@ -11660,7 +11078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" spans="1:9">
+    <row r="260" spans="1:9" s="5" customFormat="1">
       <c r="A260" s="13">
         <v>259</v>
       </c>
@@ -11738,7 +11156,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" spans="1:9">
+    <row r="263" spans="1:9" s="5" customFormat="1">
       <c r="A263" s="13">
         <v>262</v>
       </c>
@@ -11764,7 +11182,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" spans="1:9">
+    <row r="264" spans="1:9" s="5" customFormat="1">
       <c r="A264" s="13">
         <v>263</v>
       </c>
@@ -11790,7 +11208,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" spans="1:9">
+    <row r="265" spans="1:9" s="5" customFormat="1">
       <c r="A265" s="13">
         <v>264</v>
       </c>
@@ -11816,7 +11234,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" spans="1:9">
+    <row r="266" spans="1:9" s="5" customFormat="1">
       <c r="A266" s="13">
         <v>265</v>
       </c>
@@ -11842,7 +11260,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" spans="1:9">
+    <row r="267" spans="1:9" s="5" customFormat="1">
       <c r="A267" s="13">
         <v>266</v>
       </c>
@@ -11868,7 +11286,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="268" s="5" customFormat="1" spans="1:9">
+    <row r="268" spans="1:9" s="5" customFormat="1">
       <c r="A268" s="13">
         <v>267</v>
       </c>
@@ -12056,7 +11474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" s="5" customFormat="1" spans="1:9">
+    <row r="275" spans="1:9" s="5" customFormat="1">
       <c r="A275" s="13">
         <v>274</v>
       </c>
@@ -12082,7 +11500,7 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="276" s="6" customFormat="1" spans="1:9">
+    <row r="276" spans="1:9" s="6" customFormat="1">
       <c r="A276" s="35">
         <v>275</v>
       </c>
@@ -12105,7 +11523,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
+    <row r="277" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A277" s="13">
         <v>276</v>
       </c>
@@ -12259,7 +11677,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="283" s="7" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
+    <row r="283" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1">
       <c r="A283" s="13">
         <v>282</v>
       </c>
@@ -12285,7 +11703,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" s="7" customFormat="1" spans="1:9">
+    <row r="284" spans="1:9" s="7" customFormat="1">
       <c r="A284" s="13">
         <v>283</v>
       </c>
@@ -12337,7 +11755,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" s="7" customFormat="1" spans="1:9">
+    <row r="286" spans="1:9" s="7" customFormat="1">
       <c r="A286" s="13">
         <v>285</v>
       </c>
@@ -12363,7 +11781,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" s="7" customFormat="1" spans="1:9">
+    <row r="287" spans="1:9" s="7" customFormat="1">
       <c r="A287" s="13">
         <v>286</v>
       </c>
@@ -12389,7 +11807,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" s="6" customFormat="1" spans="1:9">
+    <row r="288" spans="1:9" s="6" customFormat="1">
       <c r="A288" s="35">
         <v>287</v>
       </c>
@@ -12415,7 +11833,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="289" s="7" customFormat="1" spans="1:9">
+    <row r="289" spans="1:9" s="7" customFormat="1">
       <c r="A289" s="13">
         <v>288</v>
       </c>
@@ -12441,7 +11859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" s="7" customFormat="1" spans="1:9">
+    <row r="290" spans="1:9" s="7" customFormat="1">
       <c r="A290" s="13">
         <v>289</v>
       </c>
@@ -12467,7 +11885,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" s="7" customFormat="1" spans="1:9">
+    <row r="291" spans="1:9" s="7" customFormat="1">
       <c r="A291" s="13">
         <v>290</v>
       </c>
@@ -12493,7 +11911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" s="7" customFormat="1" spans="1:9">
+    <row r="292" spans="1:9" s="7" customFormat="1">
       <c r="A292" s="13">
         <v>291</v>
       </c>
@@ -12519,7 +11937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" s="7" customFormat="1" spans="1:9">
+    <row r="293" spans="1:9" s="7" customFormat="1">
       <c r="A293" s="13">
         <v>292</v>
       </c>
@@ -12545,7 +11963,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" s="7" customFormat="1" spans="1:9">
+    <row r="294" spans="1:9" s="7" customFormat="1">
       <c r="A294" s="13">
         <v>293</v>
       </c>
@@ -12571,7 +11989,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" s="7" customFormat="1" spans="1:9">
+    <row r="295" spans="1:9" s="7" customFormat="1">
       <c r="A295" s="13">
         <v>294</v>
       </c>
@@ -12675,7 +12093,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="299" s="5" customFormat="1" spans="1:9">
+    <row r="299" spans="1:9" s="5" customFormat="1">
       <c r="A299" s="13">
         <v>298</v>
       </c>
@@ -12701,7 +12119,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" s="5" customFormat="1" spans="1:9">
+    <row r="300" spans="1:9" s="5" customFormat="1">
       <c r="A300" s="13">
         <v>299</v>
       </c>
@@ -12727,7 +12145,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" spans="1:9">
+    <row r="301" spans="1:9" s="5" customFormat="1">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -12753,7 +12171,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="302" s="5" customFormat="1" spans="1:9">
+    <row r="302" spans="1:9" s="5" customFormat="1">
       <c r="A302" s="13">
         <v>301</v>
       </c>
@@ -12779,7 +12197,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="303" s="5" customFormat="1" spans="1:9">
+    <row r="303" spans="1:9" s="5" customFormat="1">
       <c r="A303" s="13">
         <v>302</v>
       </c>
@@ -12805,7 +12223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" s="5" customFormat="1" spans="1:9">
+    <row r="304" spans="1:9" s="5" customFormat="1">
       <c r="A304" s="13">
         <v>303</v>
       </c>
@@ -12831,7 +12249,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="305" s="5" customFormat="1" spans="1:9">
+    <row r="305" spans="1:9" s="5" customFormat="1">
       <c r="A305" s="13">
         <v>304</v>
       </c>
@@ -12857,7 +12275,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" spans="1:9">
+    <row r="306" spans="1:9" s="5" customFormat="1">
       <c r="A306" s="13">
         <v>305</v>
       </c>
@@ -12883,7 +12301,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" s="5" customFormat="1" spans="1:9">
+    <row r="307" spans="1:9" s="5" customFormat="1">
       <c r="A307" s="13">
         <v>306</v>
       </c>
@@ -12909,7 +12327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" s="5" customFormat="1" spans="1:9">
+    <row r="308" spans="1:9" s="5" customFormat="1">
       <c r="A308" s="13">
         <v>307</v>
       </c>
@@ -12935,7 +12353,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="309" s="5" customFormat="1" spans="1:9">
+    <row r="309" spans="1:9" s="5" customFormat="1">
       <c r="A309" s="13">
         <v>308</v>
       </c>
@@ -12961,7 +12379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" s="5" customFormat="1" spans="1:9">
+    <row r="310" spans="1:9" s="5" customFormat="1">
       <c r="A310" s="13">
         <v>309</v>
       </c>
@@ -12987,7 +12405,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" spans="1:9">
+    <row r="311" spans="1:9" s="5" customFormat="1">
       <c r="A311" s="13">
         <v>310</v>
       </c>
@@ -13013,7 +12431,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="312" s="5" customFormat="1" spans="1:7">
+    <row r="312" spans="1:9" s="5" customFormat="1">
       <c r="A312" s="13">
         <v>311</v>
       </c>
@@ -13036,7 +12454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="313" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A313" s="13">
         <v>312</v>
       </c>
@@ -13062,7 +12480,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="314" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="314" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A314" s="13">
         <v>313</v>
       </c>
@@ -13088,7 +12506,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" s="5" customFormat="1" spans="1:9">
+    <row r="315" spans="1:9" s="5" customFormat="1">
       <c r="A315" s="13">
         <v>314</v>
       </c>
@@ -13114,7 +12532,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="316" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A316" s="13">
         <v>315</v>
       </c>
@@ -13140,15 +12558,15 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" s="6" customFormat="1" spans="1:9">
+    <row r="317" spans="1:9" s="6" customFormat="1">
       <c r="A317" s="13">
         <v>316</v>
       </c>
       <c r="B317" s="44" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C317" s="37" t="s">
         <v>929</v>
-      </c>
-      <c r="C317" s="37" t="s">
-        <v>930</v>
       </c>
       <c r="E317" s="6">
         <v>1</v>
@@ -13163,15 +12581,15 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="318" s="6" customFormat="1" spans="1:9">
+    <row r="318" spans="1:9" s="6" customFormat="1">
       <c r="A318" s="13">
         <v>317</v>
       </c>
       <c r="B318" s="44" t="s">
+        <v>930</v>
+      </c>
+      <c r="C318" s="37" t="s">
         <v>931</v>
-      </c>
-      <c r="C318" s="37" t="s">
-        <v>932</v>
       </c>
       <c r="E318" s="6">
         <v>1</v>
@@ -13186,38 +12604,38 @@
         <v>44361</v>
       </c>
     </row>
-    <row r="319" s="6" customFormat="1" spans="1:9">
+    <row r="319" spans="1:9" s="6" customFormat="1">
       <c r="A319" s="13">
         <v>318</v>
       </c>
       <c r="B319" s="44" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C319" s="37" t="s">
+        <v>932</v>
+      </c>
+      <c r="E319" s="6">
+        <v>1</v>
+      </c>
+      <c r="F319" s="6">
+        <v>1</v>
+      </c>
+      <c r="G319" s="6">
+        <v>1</v>
+      </c>
+      <c r="I319" s="37" t="s">
         <v>933</v>
       </c>
-      <c r="C319" s="37" t="s">
-        <v>934</v>
-      </c>
-      <c r="E319" s="6">
-        <v>1</v>
-      </c>
-      <c r="F319" s="6">
-        <v>1</v>
-      </c>
-      <c r="G319" s="6">
-        <v>1</v>
-      </c>
-      <c r="I319" s="37" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="320" s="6" customFormat="1" spans="1:9">
+    </row>
+    <row r="320" spans="1:9" s="6" customFormat="1">
       <c r="A320" s="13">
         <v>319</v>
       </c>
       <c r="B320" s="45" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="C320" s="37" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E320" s="6">
         <v>1</v>
@@ -13232,15 +12650,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" s="6" customFormat="1" spans="1:9">
+    <row r="321" spans="1:9" s="6" customFormat="1">
       <c r="A321" s="13">
         <v>320</v>
       </c>
       <c r="B321" s="48" t="s">
-        <v>938</v>
+        <v>1005</v>
       </c>
       <c r="C321" s="37" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="E321" s="6">
         <v>1</v>
@@ -13255,41 +12673,41 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" s="6" customFormat="1" spans="1:9">
+    <row r="322" spans="1:9" s="6" customFormat="1">
       <c r="A322" s="13">
         <v>321</v>
       </c>
       <c r="B322" s="44" t="s">
+        <v>937</v>
+      </c>
+      <c r="C322" s="37" t="s">
+        <v>938</v>
+      </c>
+      <c r="D322" s="44" t="s">
+        <v>939</v>
+      </c>
+      <c r="E322" s="6">
+        <v>1</v>
+      </c>
+      <c r="F322" s="6">
+        <v>1</v>
+      </c>
+      <c r="G322" s="6">
+        <v>1</v>
+      </c>
+      <c r="I322" s="37" t="s">
         <v>940</v>
       </c>
-      <c r="C322" s="37" t="s">
-        <v>941</v>
-      </c>
-      <c r="D322" s="44" t="s">
-        <v>942</v>
-      </c>
-      <c r="E322" s="6">
-        <v>1</v>
-      </c>
-      <c r="F322" s="6">
-        <v>1</v>
-      </c>
-      <c r="G322" s="6">
-        <v>1</v>
-      </c>
-      <c r="I322" s="37" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="323" s="5" customFormat="1" spans="1:9">
+    </row>
+    <row r="323" spans="1:9" s="5" customFormat="1">
       <c r="A323" s="13">
         <v>322</v>
       </c>
       <c r="B323" s="49" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="C323" s="32" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="D323" s="33"/>
       <c r="E323" s="5">
@@ -13302,21 +12720,21 @@
         <v>0</v>
       </c>
       <c r="I323" s="32" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="324" s="5" customFormat="1" spans="1:9">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" s="5" customFormat="1">
       <c r="A324" s="13">
         <v>323</v>
       </c>
       <c r="B324" s="33" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C324" s="32" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="D324" s="33" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="E324" s="5">
         <v>0</v>
@@ -13331,15 +12749,15 @@
         <v>925</v>
       </c>
     </row>
-    <row r="325" s="5" customFormat="1" spans="1:9">
+    <row r="325" spans="1:9" s="5" customFormat="1">
       <c r="A325" s="13">
         <v>324</v>
       </c>
       <c r="B325" s="33" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C325" s="32" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="E325" s="5">
         <v>0</v>
@@ -13354,99 +12772,99 @@
         <v>925</v>
       </c>
     </row>
-    <row r="326" s="5" customFormat="1" spans="1:9">
+    <row r="326" spans="1:9" s="5" customFormat="1">
       <c r="A326" s="13">
         <v>325</v>
       </c>
       <c r="B326" s="33" t="s">
+        <v>948</v>
+      </c>
+      <c r="C326" s="33" t="s">
+        <v>949</v>
+      </c>
+      <c r="D326" s="33" t="s">
+        <v>950</v>
+      </c>
+      <c r="E326" s="5">
+        <v>0</v>
+      </c>
+      <c r="F326" s="5">
+        <v>0</v>
+      </c>
+      <c r="G326" s="5">
+        <v>0</v>
+      </c>
+      <c r="H326" s="5" t="s">
         <v>951</v>
-      </c>
-      <c r="C326" s="33" t="s">
-        <v>952</v>
-      </c>
-      <c r="D326" s="33" t="s">
-        <v>953</v>
-      </c>
-      <c r="E326" s="5">
-        <v>0</v>
-      </c>
-      <c r="F326" s="5">
-        <v>0</v>
-      </c>
-      <c r="G326" s="5">
-        <v>0</v>
-      </c>
-      <c r="H326" s="5" t="s">
-        <v>954</v>
       </c>
       <c r="I326" s="32" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="327" s="5" customFormat="1" spans="1:9">
+    <row r="327" spans="1:9" s="5" customFormat="1">
       <c r="A327" s="13">
         <v>326</v>
       </c>
       <c r="B327" s="33" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C327" s="32" t="s">
         <v>477</v>
       </c>
       <c r="D327" s="33" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="E327" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F327" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G327" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I327" s="46">
         <v>44354</v>
       </c>
     </row>
-    <row r="328" s="5" customFormat="1" spans="1:9">
+    <row r="328" spans="1:9" s="5" customFormat="1">
       <c r="A328" s="13">
         <v>327</v>
       </c>
       <c r="B328" s="33" t="s">
+        <v>954</v>
+      </c>
+      <c r="C328" s="32" t="s">
+        <v>955</v>
+      </c>
+      <c r="D328" s="33" t="s">
+        <v>956</v>
+      </c>
+      <c r="E328" s="5">
+        <v>0</v>
+      </c>
+      <c r="F328" s="5">
+        <v>0</v>
+      </c>
+      <c r="G328" s="5">
+        <v>0</v>
+      </c>
+      <c r="I328" s="32" t="s">
         <v>957</v>
       </c>
-      <c r="C328" s="32" t="s">
-        <v>958</v>
-      </c>
-      <c r="D328" s="33" t="s">
-        <v>959</v>
-      </c>
-      <c r="E328" s="5">
-        <v>0</v>
-      </c>
-      <c r="F328" s="5">
-        <v>0</v>
-      </c>
-      <c r="G328" s="5">
-        <v>0</v>
-      </c>
-      <c r="I328" s="32" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="329" s="5" customFormat="1" spans="1:9">
+    </row>
+    <row r="329" spans="1:9" s="5" customFormat="1">
       <c r="A329" s="13">
         <v>328</v>
       </c>
       <c r="B329" s="31" t="s">
-        <v>961</v>
+        <v>958</v>
       </c>
       <c r="C329" s="32" t="s">
-        <v>962</v>
+        <v>959</v>
       </c>
       <c r="D329" s="32" t="s">
-        <v>963</v>
+        <v>960</v>
       </c>
       <c r="E329" s="5">
         <v>1</v>
@@ -13461,18 +12879,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" s="5" customFormat="1" spans="1:9">
+    <row r="330" spans="1:9" s="5" customFormat="1">
       <c r="A330" s="13">
         <v>329</v>
       </c>
       <c r="B330" s="31" t="s">
-        <v>964</v>
+        <v>961</v>
       </c>
       <c r="C330" s="32" t="s">
-        <v>965</v>
+        <v>962</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>966</v>
+        <v>963</v>
       </c>
       <c r="E330" s="5">
         <v>1</v>
@@ -13492,13 +12910,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>967</v>
+        <v>964</v>
       </c>
       <c r="C331" s="32" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="D331" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="E331" s="5">
         <v>1</v>
@@ -13518,13 +12936,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="C332" s="32" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="D332" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="E332" s="5">
         <v>1</v>
@@ -13544,13 +12962,13 @@
         <v>332</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="C333" s="32" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D333" s="28" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E333" s="5">
         <v>0</v>
@@ -13570,13 +12988,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="C334" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D334" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E334" s="5">
         <v>1</v>
@@ -13588,30 +13006,32 @@
         <v>1</v>
       </c>
       <c r="I334" s="32" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="335" spans="1:9">
       <c r="A335" s="13">
         <v>334</v>
       </c>
-      <c r="B335" s="8" t="s">
-        <v>979</v>
-      </c>
-      <c r="C335" s="32" t="s">
-        <v>980</v>
-      </c>
-      <c r="E335" s="5">
-        <v>1</v>
-      </c>
-      <c r="F335" s="5">
-        <v>1</v>
-      </c>
-      <c r="G335" s="5">
-        <v>1</v>
-      </c>
-      <c r="I335" s="32" t="s">
-        <v>981</v>
+      <c r="B335" s="36" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C335" s="37" t="s">
+        <v>976</v>
+      </c>
+      <c r="D335" s="6"/>
+      <c r="E335" s="6">
+        <v>1</v>
+      </c>
+      <c r="F335" s="6">
+        <v>1</v>
+      </c>
+      <c r="G335" s="6">
+        <v>1</v>
+      </c>
+      <c r="H335" s="6"/>
+      <c r="I335" s="37" t="s">
+        <v>977</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -13619,13 +13039,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C336" s="32" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D336" s="28" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="E336" s="5">
         <v>1</v>
@@ -13645,13 +13065,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C337" s="32" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="D337" s="28" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="E337" s="5">
         <v>0</v>
@@ -13663,7 +13083,7 @@
         <v>0</v>
       </c>
       <c r="I337" s="32" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
     </row>
     <row r="338" spans="1:9">
@@ -13671,13 +13091,13 @@
         <v>337</v>
       </c>
       <c r="B338" s="51" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C338" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="D338" s="52" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="E338">
         <v>1</v>
@@ -13689,7 +13109,7 @@
         <v>1</v>
       </c>
       <c r="I338" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
     </row>
     <row r="339" spans="1:9">
@@ -13697,10 +13117,10 @@
         <v>338</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C339" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="E339">
         <v>0</v>
@@ -13715,18 +13135,18 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="340" ht="15.75" spans="1:9">
+    <row r="340" spans="1:9" ht="15.75">
       <c r="A340" s="5">
         <v>339</v>
       </c>
       <c r="B340" s="51" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="C340" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="D340" s="51" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="E340" s="5">
         <v>1</v>
@@ -13741,18 +13161,18 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="341" ht="15.75" spans="1:9">
+    <row r="341" spans="1:9" ht="15.75">
       <c r="A341" s="5">
         <v>340</v>
       </c>
       <c r="B341" s="51" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C341" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="D341" s="51" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="E341">
         <v>1</v>
@@ -13764,21 +13184,21 @@
         <v>1</v>
       </c>
       <c r="I341" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="342" ht="15.75" spans="1:9">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" ht="15.75">
       <c r="A342" s="5">
         <v>341</v>
       </c>
       <c r="B342" s="51" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="C342" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="D342" s="53" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="E342">
         <v>1</v>
@@ -13790,21 +13210,21 @@
         <v>1</v>
       </c>
       <c r="I342" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="343" customFormat="1" spans="1:9">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9">
       <c r="A343" s="13">
         <v>342</v>
       </c>
       <c r="B343" s="32" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C343" s="54" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="D343" s="28" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="E343" s="5">
         <v>1</v>
@@ -13820,39 +13240,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H343">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H343"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="2" ht="51.75" customHeight="1"/>
-    <row r="3" ht="52.5" customHeight="1"/>
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>